--- a/Ch06_関数近似/関数近似_ActorCritic_vx01_テンプレート.xlsx
+++ b/Ch06_関数近似/関数近似_ActorCritic_vx01_テンプレート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miyapad\Dropbox\開発\ExcelReinforcementLearning\Excel_on_Final\Ch06_関数近似\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516554FE-94EC-461D-9C57-53590CCBC070}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A779713-824F-442E-9F8C-577437296A18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{900BD54F-964B-4B18-8A97-F2E978D307A8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>done</t>
     <phoneticPr fontId="2"/>
@@ -844,85 +844,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>n/a</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>argmax</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.14999847407452621"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,a)</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t>A</t>
     </r>
@@ -955,75 +876,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>argmax</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Q</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(S</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,a)</t>
     </r>
     <phoneticPr fontId="2"/>
   </si>
@@ -2105,10 +1957,7 @@
   <dimension ref="A1:AX287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -2267,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="82" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L7" s="28" t="s">
         <v>25</v>
@@ -2300,10 +2149,10 @@
         <v>3</v>
       </c>
       <c r="X7" s="74" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="75" t="s">
         <v>23</v>
